--- a/inversiondelgobierno.xls.xlsx
+++ b/inversiondelgobierno.xls.xlsx
@@ -906,18 +906,9 @@
     <t>79.1</t>
   </si>
   <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
     <t>58.3</t>
   </si>
   <si>
-    <t>Republic of Moldova</t>
-  </si>
-  <si>
-    <t>Republic of North Macedonia</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
@@ -1050,12 +1041,6 @@
     <t>79.4</t>
   </si>
   <si>
-    <t>United Republic of Tanzania</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -1093,13 +1078,28 @@
   </si>
   <si>
     <t xml:space="preserve"> Country</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1234,11 +1234,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1246,17 +1248,25 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1638,7 +1648,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -2018,15 +2028,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="77.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2186,7 +2197,7 @@
     </row>
     <row r="21" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -2658,7 +2669,7 @@
     </row>
     <row r="80" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>225</v>
@@ -2906,7 +2917,7 @@
     </row>
     <row r="111" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>78</v>
@@ -3122,23 +3133,23 @@
     </row>
     <row r="138" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>35</v>
@@ -3146,15 +3157,15 @@
     </row>
     <row r="141" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>110</v>
@@ -3162,7 +3173,7 @@
     </row>
     <row r="143" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>202</v>
@@ -3170,7 +3181,7 @@
     </row>
     <row r="144" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>156</v>
@@ -3178,7 +3189,7 @@
     </row>
     <row r="145" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>12</v>
@@ -3186,7 +3197,7 @@
     </row>
     <row r="146" spans="1:2" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>178</v>
@@ -3194,7 +3205,7 @@
     </row>
     <row r="147" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>66</v>
@@ -3202,7 +3213,7 @@
     </row>
     <row r="148" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>143</v>
@@ -3210,7 +3221,7 @@
     </row>
     <row r="149" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>18</v>
@@ -3218,15 +3229,15 @@
     </row>
     <row r="150" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>41</v>
@@ -3234,7 +3245,7 @@
     </row>
     <row r="152" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>75</v>
@@ -3242,7 +3253,7 @@
     </row>
     <row r="153" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>113</v>
@@ -3250,7 +3261,7 @@
     </row>
     <row r="154" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>181</v>
@@ -3258,7 +3269,7 @@
     </row>
     <row r="155" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>48</v>
@@ -3266,7 +3277,7 @@
     </row>
     <row r="156" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>294</v>
@@ -3274,7 +3285,7 @@
     </row>
     <row r="157" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>134</v>
@@ -3282,7 +3293,7 @@
     </row>
     <row r="158" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>228</v>
@@ -3290,7 +3301,7 @@
     </row>
     <row r="159" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>131</v>
@@ -3298,7 +3309,7 @@
     </row>
     <row r="160" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>214</v>
@@ -3306,7 +3317,7 @@
     </row>
     <row r="161" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>8</v>
@@ -3314,7 +3325,7 @@
     </row>
     <row r="162" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>90</v>
@@ -3322,7 +3333,7 @@
     </row>
     <row r="163" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>106</v>
@@ -3330,7 +3341,7 @@
     </row>
     <row r="164" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>196</v>
@@ -3338,7 +3349,7 @@
     </row>
     <row r="165" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>95</v>
@@ -3346,15 +3357,15 @@
     </row>
     <row r="166" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>3</v>
@@ -3362,7 +3373,7 @@
     </row>
     <row r="168" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>102</v>
@@ -3370,7 +3381,7 @@
     </row>
     <row r="169" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>189</v>
@@ -3378,7 +3389,7 @@
     </row>
     <row r="170" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>5</v>
@@ -3386,7 +3397,7 @@
     </row>
     <row r="171" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>193</v>
@@ -3394,15 +3405,15 @@
     </row>
     <row r="172" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>26</v>
@@ -3410,7 +3421,7 @@
     </row>
     <row r="174" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>110</v>
@@ -3418,7 +3429,7 @@
     </row>
     <row r="175" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>24</v>
@@ -3426,7 +3437,7 @@
     </row>
     <row r="176" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>42</v>
@@ -3434,7 +3445,7 @@
     </row>
     <row r="177" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>231</v>
@@ -3442,7 +3453,7 @@
     </row>
     <row r="178" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>115</v>
@@ -3450,7 +3461,7 @@
     </row>
     <row r="179" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>157</v>
@@ -3458,7 +3469,7 @@
     </row>
     <row r="180" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>7</v>
@@ -3466,23 +3477,23 @@
     </row>
     <row r="181" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>45</v>
@@ -3490,7 +3501,7 @@
     </row>
     <row r="184" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>292</v>
@@ -3498,7 +3509,7 @@
     </row>
     <row r="185" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>100</v>
@@ -3506,7 +3517,7 @@
     </row>
     <row r="186" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>21</v>
@@ -3514,7 +3525,7 @@
     </row>
     <row r="187" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>29</v>
@@ -3522,7 +3533,7 @@
     </row>
     <row r="188" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>262</v>
@@ -3530,7 +3541,7 @@
     </row>
     <row r="189" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>3</v>
@@ -3538,7 +3549,7 @@
     </row>
     <row r="190" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>287</v>
@@ -3546,7 +3557,7 @@
     </row>
     <row r="191" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>173</v>
